--- a/JOYCE SWAKEI.xlsx
+++ b/JOYCE SWAKEI.xlsx
@@ -7937,7 +7937,7 @@
   <dimension ref="A2:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8108,10 +8108,12 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>2200</v>
+      </c>
       <c r="H9" s="17">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -8512,10 +8514,12 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="16">
+        <v>2025</v>
+      </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>-525</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -8618,11 +8622,11 @@
       </c>
       <c r="G28" s="16">
         <f>SUM(G6:G27)</f>
-        <v>11500</v>
+        <v>15725</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="2"/>
-        <v>30848</v>
+        <v>26623</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="2"/>
@@ -8707,7 +8711,7 @@
       </c>
       <c r="F34" s="38">
         <f>G28</f>
-        <v>11500</v>
+        <v>15725</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -8976,7 +8980,7 @@
       </c>
       <c r="F46" s="45">
         <f>F34+F35+F37+F36-G38</f>
-        <v>15894</v>
+        <v>20119</v>
       </c>
       <c r="G46" s="45">
         <f>SUM(G40:G45)</f>
@@ -8984,7 +8988,7 @@
       </c>
       <c r="H46" s="45">
         <f>F46-G46</f>
-        <v>4807</v>
+        <v>9032</v>
       </c>
       <c r="I46" s="43"/>
       <c r="K46" s="44">

--- a/JOYCE SWAKEI.xlsx
+++ b/JOYCE SWAKEI.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10800" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="10800" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER 20" sheetId="1" r:id="rId1"/>
@@ -31,12 +26,12 @@
   <externalReferences>
     <externalReference r:id="rId16"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="182">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -579,12 +574,15 @@
   </si>
   <si>
     <t>PAID ON 4/12</t>
+  </si>
+  <si>
+    <t>paid on 13/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -958,13 +956,7 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="28">
-          <cell r="H28" t="str">
-            <v>BL</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1023,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1058,7 +1050,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5590,7 +5582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -6784,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,19 +7616,13 @@
       <c r="A36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="38">
-        <f>I28</f>
-        <v>1564</v>
-      </c>
+      <c r="B36" s="38"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="38">
-        <f>I28</f>
-        <v>1564</v>
-      </c>
+      <c r="F36" s="38"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="34" t="s">
@@ -7852,7 +7838,7 @@
       </c>
       <c r="B46" s="45">
         <f>B37+B34+B35+B36-C38</f>
-        <v>39041</v>
+        <v>37477</v>
       </c>
       <c r="C46" s="45">
         <f>SUM(C40:C45)</f>
@@ -7860,14 +7846,14 @@
       </c>
       <c r="D46" s="45">
         <f>B46-C46</f>
-        <v>10842</v>
+        <v>9278</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="45">
         <f>F34+F35+F37+F36-G38</f>
-        <v>34693</v>
+        <v>33129</v>
       </c>
       <c r="G46" s="45">
         <f>SUM(G40:G45)</f>
@@ -7875,7 +7861,7 @@
       </c>
       <c r="H46" s="45">
         <f>F46-G46</f>
-        <v>6494</v>
+        <v>4930</v>
       </c>
       <c r="I46" s="43"/>
       <c r="K46" s="44">
@@ -7934,10 +7920,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K48"/>
+  <dimension ref="A2:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,10 +8016,12 @@
         <f>C6+D6+E6</f>
         <v>3048</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>1200</v>
+      </c>
       <c r="H6" s="17">
         <f t="shared" ref="H6:H27" si="0">F6-G6</f>
-        <v>3048</v>
+        <v>1848</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -8056,16 +8044,20 @@
         <f t="shared" ref="F7:F27" si="1">C7+D7+E7</f>
         <v>2000</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <v>2000</v>
+      </c>
       <c r="H7" s="17">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>143</v>
+      <c r="A8" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="13">
         <v>3</v>
@@ -8075,22 +8067,20 @@
         <f>'NOVEMBER 21'!H8:H29</f>
         <v>0</v>
       </c>
-      <c r="E8" s="16">
-        <v>2000</v>
-      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="16">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B9" s="13">
@@ -8160,12 +8150,16 @@
         <f>C11+D11+E11</f>
         <v>2000</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>2000</v>
+      </c>
       <c r="H11" s="17">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I11" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>450</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -8238,12 +8232,16 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>2000</v>
+      </c>
       <c r="H14" s="17">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="I14" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
@@ -8292,8 +8290,13 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="16">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -8371,10 +8374,12 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <v>1000</v>
+      </c>
       <c r="H19" s="17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I19" s="15"/>
     </row>
@@ -8397,10 +8402,12 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <v>2000</v>
+      </c>
       <c r="H20" s="17">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20">
@@ -8430,10 +8437,12 @@
         <v>2000</v>
       </c>
       <c r="H21" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="15"/>
+        <f>F21-G21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>200</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
@@ -8508,18 +8517,18 @@
         <v>0</v>
       </c>
       <c r="E24" s="16">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G24" s="16">
-        <v>2025</v>
+        <v>2000</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="0"/>
-        <v>-525</v>
+        <v>500</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -8570,10 +8579,12 @@
         <f>C26+D26+E26</f>
         <v>2500</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="16">
+        <v>2500</v>
+      </c>
       <c r="H26" s="17">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15"/>
     </row>
@@ -8614,23 +8625,23 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>38000</v>
       </c>
       <c r="F28" s="16">
         <f t="shared" si="2"/>
-        <v>44348</v>
+        <v>43348</v>
       </c>
       <c r="G28" s="16">
         <f>SUM(G6:G27)</f>
-        <v>15725</v>
+        <v>29400</v>
       </c>
       <c r="H28" s="16">
         <f t="shared" si="2"/>
-        <v>26623</v>
+        <v>13948</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8702,7 +8713,7 @@
       </c>
       <c r="B34" s="38">
         <f>E28</f>
-        <v>39000</v>
+        <v>38000</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -8711,7 +8722,7 @@
       </c>
       <c r="F34" s="38">
         <f>G28</f>
-        <v>15725</v>
+        <v>29400</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="26"/>
@@ -8723,7 +8734,7 @@
       </c>
       <c r="B35" s="38">
         <f>'NOVEMBER 21'!D46</f>
-        <v>10842</v>
+        <v>9278</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -8732,7 +8743,7 @@
       </c>
       <c r="F35" s="38">
         <f>'NOVEMBER 21'!H46</f>
-        <v>6494</v>
+        <v>4930</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -8742,19 +8753,13 @@
       <c r="A36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="38">
-        <f>I28</f>
-        <v>1800</v>
-      </c>
+      <c r="B36" s="38"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="38">
-        <f>I28</f>
-        <v>1800</v>
-      </c>
+      <c r="F36" s="38"/>
       <c r="G36" s="26"/>
       <c r="H36" s="26"/>
       <c r="I36" s="34" t="s">
@@ -8762,7 +8767,7 @@
       </c>
       <c r="K36" s="28">
         <f>E28</f>
-        <v>39000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -8785,7 +8790,7 @@
       </c>
       <c r="K37" s="44">
         <f>C38</f>
-        <v>3900</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -8797,7 +8802,7 @@
       </c>
       <c r="C38" s="38">
         <f>B38*B34</f>
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
@@ -8808,13 +8813,13 @@
       </c>
       <c r="G38" s="38">
         <f>F38*B34</f>
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H38" s="26"/>
       <c r="I38" s="3"/>
       <c r="K38" s="44">
         <f>K36-K37</f>
-        <v>35100</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -8833,11 +8838,8 @@
       <c r="G39" s="26"/>
       <c r="H39" s="26"/>
       <c r="I39" s="34"/>
-      <c r="J39" t="s">
-        <v>147</v>
-      </c>
-      <c r="K39">
-        <v>2000</v>
+      <c r="K39" s="28">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -8857,10 +8859,13 @@
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="26"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="34">
+        <f>B35-C43</f>
+        <v>191</v>
+      </c>
       <c r="K40" s="44">
-        <f>K38-K39</f>
-        <v>33100</v>
+        <f>K38+K39</f>
+        <v>34391</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8873,8 +8878,8 @@
         <v>8</v>
       </c>
       <c r="K41" s="28">
-        <f>C43</f>
-        <v>9087</v>
+        <f>C44</f>
+        <v>15097</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -8882,22 +8887,18 @@
         <v>43</v>
       </c>
       <c r="B42" s="39"/>
-      <c r="C42" s="26">
-        <v>2000</v>
-      </c>
+      <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="40" t="s">
         <v>43</v>
       </c>
       <c r="F42" s="39"/>
-      <c r="G42" s="26">
-        <v>2000</v>
-      </c>
+      <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="34"/>
       <c r="K42" s="44">
         <f>K40-K41</f>
-        <v>24013</v>
+        <v>19294</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -8918,28 +8919,28 @@
       </c>
       <c r="H43" s="26"/>
       <c r="I43" s="43"/>
-      <c r="J43" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="28">
-        <f>C44</f>
-        <v>0</v>
-      </c>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="B44" s="26"/>
-      <c r="C44" s="42"/>
+      <c r="C44" s="42">
+        <v>15097</v>
+      </c>
       <c r="D44" s="26"/>
-      <c r="E44" s="40"/>
+      <c r="E44" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="F44" s="26"/>
-      <c r="G44" s="42"/>
+      <c r="G44" s="42">
+        <v>15097</v>
+      </c>
       <c r="H44" s="26"/>
       <c r="I44" s="3"/>
-      <c r="K44" s="44">
-        <f>K42-K43</f>
-        <v>24013</v>
-      </c>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
@@ -8955,8 +8956,7 @@
         <v>148</v>
       </c>
       <c r="K45" s="44">
-        <f>B36</f>
-        <v>1800</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -8965,35 +8965,35 @@
       </c>
       <c r="B46" s="45">
         <f>B37+B34+B35+B36-C38</f>
-        <v>47742</v>
+        <v>43478</v>
       </c>
       <c r="C46" s="45">
         <f>SUM(C40:C45)</f>
-        <v>11087</v>
+        <v>24184</v>
       </c>
       <c r="D46" s="45">
         <f>B46-C46</f>
-        <v>36655</v>
+        <v>19294</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="45">
         <f>F34+F35+F37+F36-G38</f>
-        <v>20119</v>
+        <v>30530</v>
       </c>
       <c r="G46" s="45">
         <f>SUM(G40:G45)</f>
-        <v>11087</v>
+        <v>24184</v>
       </c>
       <c r="H46" s="45">
         <f>F46-G46</f>
-        <v>9032</v>
+        <v>6346</v>
       </c>
       <c r="I46" s="43"/>
       <c r="K46" s="44">
-        <f>K44+K45</f>
-        <v>25813</v>
+        <f>I28</f>
+        <v>3125</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -9014,7 +9014,8 @@
       <c r="I47" s="43"/>
       <c r="J47" s="44"/>
       <c r="K47" s="44">
-        <v>2377</v>
+        <f>K45+K46</f>
+        <v>4689</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -9031,9 +9032,12 @@
         <v>64</v>
       </c>
       <c r="G48" s="3"/>
-      <c r="K48" s="44">
-        <f>K46+K47</f>
-        <v>28190</v>
+      <c r="K48" s="44"/>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>5700+4400</f>
+        <v>10100</v>
       </c>
     </row>
   </sheetData>
@@ -9041,6 +9045,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12234,8 +12239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13282,7 +13287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
@@ -14314,7 +14319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -16472,8 +16477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
